--- a/public/master/sample_kecamatan.xlsx
+++ b/public/master/sample_kecamatan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen3\Desktop\SANITASI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\laravel-sanitasi\public\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C4BDD2-123E-4F9B-A46C-C6AFB9218F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CF1A70-037E-496C-AAA9-E620A3652C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B036E54B-A61E-46E9-BA9B-58AE5D710F08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Sintang</t>
   </si>
@@ -76,13 +76,58 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Kode</t>
+  </si>
+  <si>
+    <t>610501</t>
+  </si>
+  <si>
+    <t>610502</t>
+  </si>
+  <si>
+    <t>610503</t>
+  </si>
+  <si>
+    <t>610504</t>
+  </si>
+  <si>
+    <t>610505</t>
+  </si>
+  <si>
+    <t>610506</t>
+  </si>
+  <si>
+    <t>610507</t>
+  </si>
+  <si>
+    <t>610508</t>
+  </si>
+  <si>
+    <t>610509</t>
+  </si>
+  <si>
+    <t>610514</t>
+  </si>
+  <si>
+    <t>610515</t>
+  </si>
+  <si>
+    <t>610519</t>
+  </si>
+  <si>
+    <t>610520</t>
+  </si>
+  <si>
+    <t>610521</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +152,13 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -163,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,6 +228,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -492,148 +547,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A97102-E6B2-4EBC-9168-53C3312B9B96}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>